--- a/submission/84c5fb9cc880_TGS.xlsx
+++ b/submission/84c5fb9cc880_TGS.xlsx
@@ -476,7 +476,7 @@
         <v>16010</v>
       </c>
       <c r="B12">
-        <v>88.80723571777344</v>
+        <v>150.0422515869141</v>
       </c>
     </row>
     <row r="13" spans="1:2">
